--- a/House_Repairs.xlsx
+++ b/House_Repairs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48595\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48595\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAD40F7-AC52-4860-B0F6-6D4E570B52CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1319E19-702F-4504-96DE-E62D19514893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B3BC511-B4C6-4F9B-81F0-5DD51086D9D1}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="189">
   <si>
     <t>Description</t>
   </si>
@@ -694,23 +694,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -739,35 +728,33 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
@@ -1121,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CE1193-6DFE-47A9-83AC-E203FA1AEFEE}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,64 +1149,64 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <f>SUM(C2:E2)</f>
         <v>728.46</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <f>'Ext. Gutter'!J4</f>
         <v>-349.33</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <f>'Ext. Gutter'!K4</f>
         <v>1077.79</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="22">
         <f>-'Ext. Gutter'!L4</f>
         <v>0</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="22">
         <f>E2+F2</f>
         <v>1077.79</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="23" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9">
-        <f t="shared" ref="B3:B13" si="0">SUM(C3:E3)</f>
+      <c r="B3" s="7">
+        <f t="shared" ref="B3:B14" si="0">SUM(C3:E3)</f>
         <v>310.26</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <f>'Ext. Fascia'!J5</f>
         <v>-41.89</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <f>'Ext. Fascia'!K5</f>
         <v>352.15</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="22">
         <f>-'Ext. Fascia'!L5</f>
         <v>0</v>
       </c>
-      <c r="G3" s="24">
-        <f t="shared" ref="G3:G14" si="1">E3+F3</f>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G15" si="1">E3+F3</f>
         <v>352.15</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="24" t="s">
         <v>187</v>
       </c>
       <c r="K3" t="s">
@@ -1229,33 +1216,33 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <f t="shared" si="0"/>
         <v>186.39999999999998</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <f>'Ext. Soffit'!J5</f>
         <v>-26.4</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <f>'Ext. Soffit'!K5</f>
         <v>212.79999999999998</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <f>-'Ext. Soffit'!L5</f>
         <v>0</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <f t="shared" si="1"/>
         <v>212.79999999999998</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="25" t="s">
         <v>188</v>
       </c>
       <c r="K4" t="s">
@@ -1263,29 +1250,29 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>3384.05</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>'Ext. Deck'!J6</f>
         <v>-421.62</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <f>'Ext. Deck'!K6</f>
         <v>3805.67</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <f>-'Ext. Deck'!L6</f>
         <v>0</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <f t="shared" si="1"/>
         <v>3805.67</v>
       </c>
@@ -1294,29 +1281,29 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>2021.8300000000004</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f>'Ext. AC Repair'!J5</f>
         <v>-708.87</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <f>'Ext. AC Repair'!K5</f>
         <v>2730.7000000000003</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <f>-'Ext. AC Repair'!L5</f>
         <v>-89</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <f t="shared" si="1"/>
         <v>2641.7000000000003</v>
       </c>
@@ -1327,31 +1314,31 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>6384.4600000000009</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <f>'Ext. Misc'!J10</f>
         <v>-232.8</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
         <f>'Ext. Misc'!K10</f>
         <v>6617.2600000000011</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <f>-'Ext. Misc'!L10</f>
-        <v>-2100</v>
-      </c>
-      <c r="G7" s="24">
+        <v>-1750</v>
+      </c>
+      <c r="G7" s="22">
         <f t="shared" si="1"/>
-        <v>4517.2600000000011</v>
+        <v>4867.2600000000011</v>
       </c>
       <c r="K7" t="s">
         <v>5</v>
@@ -1360,386 +1347,344 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>4002.41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <f>'Tree Removal'!K5</f>
+        <v>4002.41</v>
+      </c>
+      <c r="F8" s="22">
+        <f>-'Tree Removal'!L5</f>
+        <v>-3603.39</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>399.02</v>
+      </c>
+      <c r="K8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>19309.019999999997</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="7">
         <f>'RoofWalls - Roof1'!J23</f>
         <v>-4252.6400000000003</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
         <f>'RoofWalls - Roof1'!K23</f>
         <v>23561.659999999996</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F9" s="22">
         <f>-'RoofWalls - Roof1'!L23</f>
         <v>0</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G9" s="22">
         <f t="shared" si="1"/>
         <v>23561.659999999996</v>
       </c>
-      <c r="K8" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="K9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>4642.26</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C10" s="7">
         <f>'RoofWalls - Living Room'!J10</f>
         <v>-98.179999999999993</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
         <f>'RoofWalls - Living Room'!K10</f>
         <v>4740.4400000000005</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F10" s="22">
         <f>-'RoofWalls - Living Room'!L10</f>
         <v>0</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G10" s="22">
         <f t="shared" si="1"/>
         <v>4740.4400000000005</v>
       </c>
-      <c r="K9" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="K10" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>1176.33</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="7">
         <f>'RoofWalls - Dining Room'!J6</f>
         <v>-17.920000000000002</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
         <f>'RoofWalls - Dining Room'!K6</f>
         <v>1194.25</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F11" s="22">
         <f>-'RoofWalls - Dining Room'!L6</f>
         <v>0</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G11" s="22">
         <f t="shared" si="1"/>
         <v>1194.25</v>
       </c>
-      <c r="K10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="K11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>578.16</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="7">
         <f>'RoofWalls - Hallway'!J6</f>
         <v>-8.4700000000000006</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
         <f>'RoofWalls - Hallway'!K6</f>
         <v>586.63</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F12" s="22">
         <f>-'RoofWalls - Hallway'!L6</f>
         <v>0</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G12" s="22">
         <f t="shared" si="1"/>
         <v>586.63</v>
       </c>
-      <c r="K11" t="s">
-        <v>182</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="K12" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>732.24</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="7">
         <f>'RoofWalls - Bedroom'!J10</f>
         <v>-15.8</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
         <f>'RoofWalls - Bedroom'!K10</f>
         <v>748.04</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F13" s="22">
         <f>-'RoofWalls - Bedroom'!L10</f>
         <v>0</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G13" s="22">
         <f t="shared" si="1"/>
         <v>748.04</v>
       </c>
-      <c r="K12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="K13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>441.29</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="9">
         <f>LaborMinimumsApplied!K5</f>
         <v>441.29</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
         <f>LaborMinimumsApplied!M5</f>
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f>-LaborMinimumsApplied!L5</f>
         <v>0</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G14" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2">
-        <f>SUM(B2:B13)</f>
-        <v>39894.76</v>
-      </c>
-      <c r="C14" s="2">
-        <f>SUM(C2:C13)</f>
-        <v>-5732.630000000001</v>
-      </c>
-      <c r="D14" s="2">
-        <f>SUM(D2:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <f>SUM(E2:E13)</f>
-        <v>45627.39</v>
-      </c>
-      <c r="F14" s="2">
-        <f>SUM(F2:F13)</f>
-        <v>-2189</v>
-      </c>
-      <c r="G14" s="24">
-        <f t="shared" si="1"/>
-        <v>43438.39</v>
       </c>
       <c r="K14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <f>SUM(B2:B14)</f>
+        <v>43897.170000000006</v>
+      </c>
+      <c r="C15" s="2">
+        <f>SUM(C2:C14)</f>
+        <v>-5732.630000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(D2:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <f>SUM(E2:E14)</f>
+        <v>49629.8</v>
+      </c>
+      <c r="F15" s="2">
+        <f>SUM(F2:F14)</f>
+        <v>-5442.3899999999994</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>44187.41</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5">
-        <f>'Tree Removal'!K5</f>
-        <v>4002.41</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <f>'Tree Removal'!K5</f>
-        <v>4002.41</v>
-      </c>
-      <c r="F18" s="24">
-        <f>-'Tree Removal'!L5</f>
-        <v>-4002.41</v>
-      </c>
-      <c r="G18" s="24">
-        <f t="shared" ref="G18:G19" si="2">E18+F18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f>'Tree Removal'!F5</f>
-        <v>4002.41</v>
-      </c>
-      <c r="C19" s="2">
-        <f>SUM(C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <f>SUM(E18)</f>
-        <v>4002.41</v>
-      </c>
-      <c r="F19" s="24">
-        <f>F18</f>
-        <v>-4002.41</v>
-      </c>
-      <c r="G19" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="E32" s="1"/>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
@@ -1753,8 +1698,12 @@
       <c r="B35" s="1"/>
       <c r="E35" s="1"/>
     </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G22">
+  <conditionalFormatting sqref="G2:G23">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
@@ -1827,300 +1776,300 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>7.34</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>84.69</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>508.08</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>3048.44</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="21">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>-44.64</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>3003.8</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>3.08</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>3.07</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>40.04</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>240.23</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="20">
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="18">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>-1.61</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K7" si="0">F3+J3</f>
         <v>238.61999999999998</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>1.68</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>3.76</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>2.19</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>8.36</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>43.74</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>262.33999999999997</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="H5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="18">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>-4.41</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>257.92999999999995</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>348.35</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>8.61</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>71.400000000000006</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>428.36</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="14">
         <v>0.25</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>-34.03</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>394.33000000000004</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>102.41</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
         <v>20.48</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>122.89</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>122.89</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>7.2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>15.92</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>97.02</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>582.16</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="H8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="18">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>-8.39</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <f>F8+J8</f>
         <v>573.77</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>1.65</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>0.97</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>21.7</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>130.19999999999999</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="H9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="20">
         <v>0.33329999999999999</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <f>F9+J9</f>
         <v>125.1</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
@@ -2205,7 +2154,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B31" t="s">
@@ -2305,148 +2254,148 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>7.34</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>22.59</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>133.54</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>813.23</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="21">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>-11.91</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>801.32</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>68.27</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>13.66</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>81.93</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K5" si="0">F3+J3</f>
         <v>81.93</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>7.2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>7.09</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>43.18</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>259.07</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="20">
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="18">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>-3.74</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>255.32999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>1.65</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>0.43</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>9.66</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>57.94</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="22">
+      <c r="H5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="20">
         <v>0.33329999999999999</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>-2.27</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>55.669999999999995</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
@@ -2531,7 +2480,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2601,150 +2550,150 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>7.34</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>8.08</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>48.5</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>290.95</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="21">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>-4.26</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>286.69</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>68.27</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>13.66</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>81.93</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K5" si="0">F3+J3</f>
         <v>81.93</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>7.2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>4.97</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>30.28</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>181.62</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="20">
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="18">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>-2.62</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>1.65</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>0.3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>6.76</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>40.6</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="22">
+      <c r="H5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="20">
         <v>0.33329999999999999</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>-1.59</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>39.01</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
@@ -2808,7 +2757,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2878,294 +2827,294 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>2.19</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>4.9400000000000004</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>25.82</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>154.97999999999999</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="21">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>-2.08</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>152.89999999999998</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>1.59</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>3.52</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>22.51</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K9" si="0">F3+J3</f>
         <v>22.51</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>57</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>13.85</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>34.200000000000003</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>219.05</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>219.05</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>25.41</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>0.19</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>5.12</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>30.72</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="H5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="18">
         <v>0.26669999999999999</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>-0.8</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>29.919999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>0.66</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>15.22</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>91.24</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="20">
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="18">
         <v>0.26669999999999999</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>-4.8499999999999996</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>86.39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>0.63</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>1.07</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>14.52</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>87.06</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="18">
         <v>0.26669999999999999</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>-4.53</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>82.53</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>1.36</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>0.84</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>12.72</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>76.349999999999994</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="H8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="18">
         <v>0.26669999999999999</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>-3.54</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>72.809999999999988</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>68.27</v>
       </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
         <v>13.66</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>81.93</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="H9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
         <f t="shared" si="0"/>
         <v>81.93</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
@@ -3250,7 +3199,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B38" t="s">
@@ -3270,7 +3219,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B39" t="s">
@@ -3380,35 +3329,35 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>24.54</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>29.439999999999998</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>29.439999999999998</v>
       </c>
@@ -3420,35 +3369,35 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>231.33</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
         <v>46.26</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>277.59000000000003</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <f>F3+J3</f>
         <v>277.59000000000003</v>
       </c>
@@ -3460,35 +3409,35 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>111.88</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
         <v>22.38</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>134.26</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="H4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
         <f>F4+J4</f>
         <v>134.26</v>
       </c>
@@ -3583,76 +3532,76 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>10.33</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>16.25</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>96.24</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>577.34</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="13">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11">
         <v>0.72</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>-185.04</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>392.3</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>15.48</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>11.54</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>141.63999999999999</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>849.78</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="H3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="13">
         <v>0.9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>-164.29</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>685.49</v>
       </c>
-      <c r="L3" s="11"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="2">
@@ -3746,67 +3695,67 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>6.42</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>7.36</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>65.680000000000007</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>394.04</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="11">
         <v>0.36</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>-41.89</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>352.15</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="2">
@@ -3895,74 +3844,74 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>6.49</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>4.6399999999999997</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>39.86</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>239.2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="11">
         <v>0.36</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>-26.4</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>212.79999999999998</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
         <f>F3+J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="2">
@@ -4051,150 +4000,150 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>9.5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>61.36</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>582.28</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>3493.64</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="13">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11">
         <v>0.4</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>-388.14</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>3105.5</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>5.64</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>3.28</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>23.22</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>139.30000000000001</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="14">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>-3.46</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <f>F3+J3</f>
         <v>135.84</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0.98</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>7.09</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>70.02</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>420.11</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="14">
         <v>0.2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>-22.42</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f>F4+J4</f>
         <v>397.69</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>7.14</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>2.4</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>29.04</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>174.24</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="H5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="13">
         <v>0.2</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>-7.6</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <f>F5+J5</f>
         <v>166.64000000000001</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
@@ -4283,76 +4232,76 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>3305.1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>134.47</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
         <v>3439.57</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="13">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11">
         <v>0.33329999999999999</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>-708.87</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>2730.7000000000003</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
         <f>F3+J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="2">
@@ -4390,7 +4339,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4441,297 +4390,297 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>526.09</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>31.59</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>427.2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>2563.15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="13">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11">
         <v>0.08</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>-39.56</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>2523.59</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>343.02</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>3.03</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>69.22</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>415.27</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="14">
         <v>0.4</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>-19.170000000000002</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K7" si="0">F3+J3</f>
         <v>396.09999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>6.34</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>2.23</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>63.84</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>383.07</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="14">
         <v>0.12</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>-4.2300000000000004</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>378.84</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>1.45</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>4.46</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>58.9</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>353.36</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="H5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="14">
         <v>0.8</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>-56.37</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>296.99</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>93.99</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>18.8</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>112.79</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>112.79</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>599.42999999999995</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
         <v>119.88</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>719.31</v>
       </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>719.31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>1750</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
         <v>350</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>2100</v>
       </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
         <f>F8+J8</f>
         <v>2100</v>
       </c>
       <c r="L8">
-        <v>2100</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>161.28</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>7.97</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>33.86</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>203.11</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="15">
+      <c r="H9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="13">
         <v>0.9</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>-113.47</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <f>F9+J9</f>
         <v>89.640000000000015</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
@@ -4756,7 +4705,7 @@
       </c>
       <c r="L10" s="2">
         <f>SUM(L2:L9)</f>
-        <v>2100</v>
+        <v>1750</v>
       </c>
     </row>
   </sheetData>
@@ -4820,98 +4769,101 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>2670.31</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <v>534.05999999999995</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>3204.37</v>
       </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>3204.37</v>
       </c>
-      <c r="L2" s="7">
-        <v>4002.41</v>
+      <c r="L2" s="5">
+        <v>3204.37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>55.42</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>133</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>798.04</v>
       </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <f>F3+J3</f>
         <v>798.04</v>
       </c>
+      <c r="L3">
+        <v>399.02</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="2">
@@ -4936,7 +4888,7 @@
       </c>
       <c r="L5" s="2">
         <f>SUM(L2:L4)</f>
-        <v>4002.41</v>
+        <v>3603.39</v>
       </c>
     </row>
   </sheetData>
@@ -5001,666 +4953,666 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>45.86</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <v>275.16000000000003</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>1650.96</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <f>F2+J2</f>
         <v>1650.96</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>3.85</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>71.28</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>753.46</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>4520.74</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="14">
         <v>0.12</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>-135.27000000000001</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K22" si="0">F3+J3</f>
         <v>4385.4699999999993</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>2.66</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>7.14</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>90.76</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>544.62</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="14">
         <v>0.9</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>-101.65</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>442.97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>99.61</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>223.76</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>707.76</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>4246.54</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="H5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="14">
         <v>0.72</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>-2547.92</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>1698.62</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>172.21</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
         <v>1146.24</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>6877.39</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="16">
+      <c r="H9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="14">
         <v>0.72</v>
       </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>6877.39</v>
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>44.54</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>9.5399999999999991</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>166.7</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>1000.23</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="H12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="14">
         <v>0.9</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>-135.80000000000001</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <f t="shared" si="0"/>
         <v>864.43000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>2.13</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>37.270000000000003</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>497.44</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>2984.61</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="16">
+      <c r="H14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="14">
         <v>0.6</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>-353.61</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <f t="shared" si="0"/>
         <v>2631</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>3.39</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>22.72</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>217.78</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>1306.72</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="H15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="18">
         <v>0.51429999999999998</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>-184.76</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <f t="shared" si="0"/>
         <v>1121.96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>62.39</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>3.24</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>38.08</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>228.49</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="20">
+      <c r="H16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="18">
         <v>0.51429999999999998</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>-26.32</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <f t="shared" si="0"/>
         <v>202.17000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>85.31</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>1.58</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>17.38</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>104.27</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="20">
+      <c r="H17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="18">
         <v>0.51429999999999998</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <v>-12.85</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <f t="shared" si="0"/>
         <v>91.42</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>5.66</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>8.3699999999999992</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>117.74</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>706.37</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="16">
+      <c r="H18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="14">
         <v>0.72</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="7">
         <v>-95.35</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <f t="shared" si="0"/>
         <v>611.02</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>12.76</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>27.61</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>267.16000000000003</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>1602.93</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="H19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="18">
         <v>0.51429999999999998</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="7">
         <v>-224.57</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <f t="shared" si="0"/>
         <v>1378.3600000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
         <v>456.79</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>3.78</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>92.12</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>552.69000000000005</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="20">
+      <c r="H20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="18">
         <v>0.51429999999999998</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="7">
         <v>-30.73</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="7">
         <f t="shared" si="0"/>
         <v>521.96</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>761.32</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>154.19999999999999</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>925.22</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="20">
+      <c r="H21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="18">
         <v>0.51429999999999998</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="7">
         <v>-78.89</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="7">
         <f t="shared" si="0"/>
         <v>846.33</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="19">
         <v>148.65</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>22.83</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <v>93.74</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>562.52</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="15">
+      <c r="H22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="13">
         <v>0.9</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="9">
         <v>-324.92</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="9">
         <f t="shared" si="0"/>
         <v>237.59999999999997</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23" s="2">
